--- a/Post/Index/data/Result - Detected Outlier.xlsx
+++ b/Post/Index/data/Result - Detected Outlier.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.2</v>
+        <v>33.575</v>
       </c>
       <c r="C2" t="n">
-        <v>20.59999999999999</v>
+        <v>20.815</v>
       </c>
       <c r="D2" t="n">
-        <v>223</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107.26</v>
+        <v>122.035</v>
       </c>
       <c r="C3" t="n">
-        <v>87.89999999999999</v>
+        <v>63.27500000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>13381</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Post/Index/data/Result - Detected Outlier.xlsx
+++ b/Post/Index/data/Result - Detected Outlier.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.575</v>
+        <v>34.09999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>20.815</v>
+        <v>20.66</v>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.035</v>
+        <v>121.615</v>
       </c>
       <c r="C3" t="n">
-        <v>63.27500000000001</v>
+        <v>63.97500000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Post/Index/data/Result - Detected Outlier.xlsx
+++ b/Post/Index/data/Result - Detected Outlier.xlsx
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>121.615</v>
+        <v>116.39875</v>
       </c>
       <c r="C3" t="n">
-        <v>63.97500000000001</v>
+        <v>72.66874999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
+        <v>4526</v>
       </c>
     </row>
   </sheetData>
